--- a/imports/projects.xlsx
+++ b/imports/projects.xlsx
@@ -26,17 +26,17 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors/>
   <commentList>
-    <comment ref="G17">
+    <comment ref="E17">
       <text>
         <t>Responder updated this value.</t>
       </text>
     </comment>
-    <comment ref="G15">
+    <comment ref="E15">
       <text>
         <t>Responder updated this value.</t>
       </text>
     </comment>
-    <comment ref="F15">
+    <comment ref="D15">
       <text>
         <t>Responder updated this value.</t>
       </text>
@@ -133,9 +133,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="m/d/yyyy h:mm:ss" numFmtId="100"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <b val="0"/>
@@ -201,7 +198,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -209,9 +206,6 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
@@ -4064,810 +4058,650 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.14" customWidth="1"/>
-    <col min="2" max="2" style="1" width="21.57" customWidth="1"/>
-    <col min="3" max="3" style="1" width="32.71" customWidth="1"/>
-    <col min="4" max="4" style="1" width="102.00000000000001" customWidth="1"/>
-    <col min="5" max="5" style="1" width="112.70999999999998" customWidth="1"/>
-    <col min="6" max="6" style="1" width="74.71" customWidth="1"/>
-    <col min="7" max="7" style="1" width="93.43" customWidth="1"/>
-    <col min="8" max="13" style="1" width="21.57" customWidth="1"/>
-    <col min="14" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" style="1" width="32.71" customWidth="1"/>
+    <col min="2" max="2" style="1" width="102.00000000000001" customWidth="1"/>
+    <col min="3" max="3" style="1" width="112.70999999999998" customWidth="1"/>
+    <col min="4" max="4" style="1" width="74.71" customWidth="1"/>
+    <col min="5" max="5" style="1" width="93.43" customWidth="1"/>
+    <col min="6" max="11" style="1" width="21.57" customWidth="1"/>
+    <col min="12" max="16382" style="1" width="9.142307692307693"/>
+    <col min="16383" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SL NO</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+          <t>Title 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Title 2</t>
+        </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Title 1</t>
+          <t>Title 3</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Title 2</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Title 3</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>Title 4</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" hidden="1">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FormQId</t>
-        </is>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:11" ht="15.75" hidden="1">
+      <c r="A2">
         <v>1453606276</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43322.597247384256</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Sound Regeneration using GAN's</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Blockchain in PDS and rural industries</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Secured certificates and marksheets using blockchain</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Live object detection in videos using CNN</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43322.625774513886</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>An efficient algorithm to recognize the License plate of the vehicle.</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Text Detection in Images Using Python</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Offline signature verification system</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Image Compression Using Wavelet Approach</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Intelligent theft managment system using image processing technique</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Automatic patient enrolment software for hospitals</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Make way for ambulance a moblie application</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Paperless tickets for indian transportation system</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Detecting fraud apps using sentiment analysis</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Customer behavior prediction using web usage mining</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Diabetes prediction using data mining</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Matrix based shoulder surfing security system</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Dynamic resource allocation and scheduling techniques/algorithms in cloud computing environment</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Resource migration and server consolidation approaches in cloud computing environment.</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Distributed computing technologies and security issues in Big Data analytics</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Big Data analytics for scientific computing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Segmentation and analysis of CT images for abnormality detection</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Detection and Classification of CT images for abnormalities using machine learning techniques</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>IOT based real time ambulance tracking </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Chatbot for career guidance using AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>43325.582203136575</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Intelligent theft managment system using image processing technique</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Automatic patient enrolment software for hospitals</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Make way for ambulance a moblie application</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Paperless tickets for indian transportation system</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Automation of Agricultural Process</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>IOT for women safety</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Enhancement of Software Quality through Predictive model </t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>IOT for better living style </t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>cloud integrated smart attendance system</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Web based library management system using angular and springboot</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>automatic street lighting using IOT</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>automatic control of geyser using audunio and rasbery pi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>smartphone app develops an instant translation of a Indian street sign</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Tracking multiple objects using deep learning techniques</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>classification genre of songs</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Anomaly detection in ATM </t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>43325.685303738428</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Detecting fraud apps using sentiment analysis</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Customer behavior prediction using web usage mining</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Diabetes prediction using data mining</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Matrix based shoulder surfing security system</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Advance Predictive Machine learning model using deep learning</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>3D model construction using multiple 2 D images</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Natural Language Processing using Tensor Flow</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Reinforcement Learning Methods for Sample based decision theoretic planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Novel apprach for denoising images using hybrid filters</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Detection and Characterization of Subsolid Juxta-pleural Lung Nodule from CT Images</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Chatbots in educational system</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Design of Biometric Recognition Software Based on Image Processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Low-Dose CT Image Denoising using novelfilter</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Human Identification from Freestyle Walks using Posture-Based Gait Feature</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Harnessing Multi-source Data about Public Sentiments and Activities for Informed Design</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Top-down parsing for Neural Network Exchange Format (NNEF) in TensorFlow-based deep learning computation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Avoiding Excessive Power Consumption by avoiding security Attacks in Networks </t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Computer network security issues and measures to avoid it</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>An implementation of reliable routing protocol in Wirless sensor/adhoc networks</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>An implementation of energy aware and secure routing protocol in Wirless sensor/adhoc networks</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Computer Simulation of Discrete Human-Machine Interaction for Providing Reliability and Cybersecurity of Critical Systems</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Cooperative Key Generation For Data Dissemination in Cyber-Physical Systems</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Beyond PKI: Enhanced Authentication in Vehicular Networks via MIMO</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t> Intrusion Detection and Prevention Based on State Context and Hierarchical Trust in Wireless Sensor Networks</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Multi-label Classification system of printed media articles to topic</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Chat bot that answers about curriculum</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Test automation in agricultural applications</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>IoT for secure living styles in human society</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>A Security Routing Protocol for Internet of Things Based on RPL</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Priority based optimal resource reservation mechanism in constrained Networks for IOT applications</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Constructing a Global Social Service Network for Better Quality of Web Service Discovery</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Green wireless-optical broadband access network: Energy and quality-of-service considerations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Load Balancing in Virtualized  Cloud Environment to Minimize the Energy Utilization</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Reliable Scheduling Algorithm to Enhance Effective performance of the Multi source cloud </t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Drought prediction using wireless sensor networks</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>An Efficient and Secured Data Storage technique  in  cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Data Analysis as a Web Service: A Case Study Using IOT Sensor Data</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Semantic Data Management in Smart Cities</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Server less Computing: Design, Implementation, and Performance</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Integration between Wireless Sensor and Cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>43326.431234907403</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Dynamic resource allocation and scheduling techniques/algorithms in cloud computing environment</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Resource migration and server consolidation approaches in cloud computing environment.</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Distributed computing technologies and security issues in Big Data analytics</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Big Data analytics for scientific computing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Automatic  Signboard detection system by the vehicle</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Reducing the accidents based on pedestrian detection system </t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Agricultural Plant disease prediction system</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Application of remote sensing images for natural disaster mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Detection and isolation of attacks in software defined </t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>A novel method for securing SDN</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Packet encryption in SDN based networks</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>An approach to prevent controller attacks in SDN </t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Combinatorial Testing of ACTS: A Case Study</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Combinatorial Testing of ACTS: A Case Study Extracting the Combinatorial Test Parameters and Values from UML Sequence Diagrams</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>A novel approach for deriving interactions for combinatorial testing</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Fault Localization Based on Failure-Inducing Combinations</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Implement a trace based branch prediction simulator.</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Implement a trace based cache simulator. </t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Implement and evaluate cache replacement algorithms</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Implement and evaluate cache prefetching algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Breast cancer detection</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>dual energy CT reconstruction using guided media image filtering</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>cardiac scinitigraphic image segmentation techniques</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>segmentation of ultrasound medical images using image processing techniques</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>43326.70725269676</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Segmentation and analysis of CT images for abnormality detection</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>Detection and Classification of CT images for abnormalities using machine learning techniques</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>IOT based real time ambulance tracking </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Chatbot for career guidance using AI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43335.5824244213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Automation of Agricultural Process</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>IOT for women safety</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Enhancement of Software Quality through Predictive model </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>IOT for better living style </t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43335.687588564819</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>cloud integrated smart attendance system</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>Web based library management system using angular and springboot</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>automatic street lighting using IOT</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>automatic control of geyser using audunio and rasbery pi</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43335.693624386578</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>smartphone app develops an instant translation of a Indian street sign</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Tracking multiple objects using deep learning techniques</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>classification genre of songs</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>Anomaly detection in ATM </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>43341.699140335651</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Advance Predictive Machine learning model using deep learning</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>3D model construction using multiple 2 D images</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Natural Language Processing using Tensor Flow</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Reinforcement Learning Methods for Sample based decision theoretic planning</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43342.474202141202</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Novel apprach for denoising images using hybrid filters</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Detection and Characterization of Subsolid Juxta-pleural Lung Nodule from CT Images</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Chatbots in educational system</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>Design of Biometric Recognition Software Based on Image Processing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>43342.484297812502</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>Low-Dose CT Image Denoising using novelfilter</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Human Identification from Freestyle Walks using Posture-Based Gait Feature</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>Harnessing Multi-source Data about Public Sentiments and Activities for Informed Design</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>Top-down parsing for Neural Network Exchange Format (NNEF) in TensorFlow-based deep learning computation</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>43342.546873101848</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Avoiding Excessive Power Consumption by avoiding security Attacks in Networks </t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Computer network security issues and measures to avoid it</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>An implementation of reliable routing protocol in Wirless sensor/adhoc networks</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>An implementation of energy aware and secure routing protocol in Wirless sensor/adhoc networks</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43342.678471446758</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Computer Simulation of Discrete Human-Machine Interaction for Providing Reliability and Cybersecurity of Critical Systems</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Cooperative Key Generation For Data Dissemination in Cyber-Physical Systems</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Beyond PKI: Enhanced Authentication in Vehicular Networks via MIMO</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t> Intrusion Detection and Prevention Based on State Context and Hierarchical Trust in Wireless Sensor Networks</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43342.680002731482</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Multi-label Classification system of printed media articles to topic</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Chat bot that answers about curriculum</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>Test automation in agricultural applications</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>IoT for secure living styles in human society</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>43342.694467499998</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>A Security Routing Protocol for Internet of Things Based on RPL</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Priority based optimal resource reservation mechanism in constrained Networks for IOT applications</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>Constructing a Global Social Service Network for Better Quality of Web Service Discovery</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>Green wireless-optical broadband access network: Energy and quality-of-service considerations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>43342.986169826385</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Load Balancing in Virtualized  Cloud Environment to Minimize the Energy Utilization</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>Reliable Scheduling Algorithm to Enhance Effective performance of the Multi source cloud </t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>Drought prediction using wireless sensor networks</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>An Efficient and Secured Data Storage technique  in  cloud</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>43343.458163958334</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Data Analysis as a Web Service: A Case Study Using IOT Sensor Data</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>Semantic Data Management in Smart Cities</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>Server less Computing: Design, Implementation, and Performance</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>Integration between Wireless Sensor and Cloud</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>43343.498539537039</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>Automatic  Signboard detection system by the vehicle</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>Reducing the accidents based on pedestrian detection system </t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>Agricultural Plant disease prediction system</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>Application of remote sensing images for natural disaster mitigation</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>43343.670585925924</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>Detection and isolation of attacks in software defined </t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>A novel method for securing SDN</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>Packet encryption in SDN based networks</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>An approach to prevent controller attacks in SDN </t>
-        </is>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>43344.51147626157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Combinatorial Testing of ACTS: A Case Study</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Combinatorial Testing of ACTS: A Case Study Extracting the Combinatorial Test Parameters and Values from UML Sequence Diagrams</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>A novel approach for deriving interactions for combinatorial testing</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>Fault Localization Based on Failure-Inducing Combinations</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>43344.516629664351</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>Implement a trace based branch prediction simulator.</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Implement a trace based cache simulator. </t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>Implement and evaluate cache replacement algorithms</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>Implement and evaluate cache prefetching algorithms</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>43344.537875277776</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>Breast cancer detection</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>dual energy CT reconstruction using guided media image filtering</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>cardiac scinitigraphic image segmentation techniques</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>segmentation of ultrasound medical images using image processing techniques</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>43346.518502476851</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>Contour Based Shape Retrieval and Recognition</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Dynamic Clustering-Based Method for Shape Recognition and Retrieval</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>Division and Replication of Data in Cloud for Optimal Performance and Security</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>Resource Allocation in Mobile Cloud Computing using Optimizations Technique </t>
         </is>
